--- a/data/Negociado_de_Policia/Incidentes Violencia Domestica por area policiaca.xlsx
+++ b/data/Negociado_de_Policia/Incidentes Violencia Domestica por area policiaca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f9f81cad9707229/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f9f81cad9707229/Documents/GitHub/Estadisticas-Sobre-Violencia-de-Genero-en-Puerto-Rico/data/Negociado_de_Policia/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D772A3-C86A-4736-BB47-FEF3B54E33FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Negociado_de_Policia/Incidentes Violencia Domestica por area policiaca.xlsx
+++ b/data/Negociado_de_Policia/Incidentes Violencia Domestica por area policiaca.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f9f81cad9707229/Documents/GitHub/Estadisticas-Sobre-Violencia-de-Genero-en-Puerto-Rico/data/Negociado_de_Policia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixbaez822/Desktop/ViolenciaGeneroPR/data/Negociado_de_Policia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5D772A3-C86A-4736-BB47-FEF3B54E33FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1FDEA9-E47D-9B44-9E70-A971A33097DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{837DC931-AF0F-438A-81E4-F0599318A262}"/>
+    <workbookView xWindow="6360" yWindow="1760" windowWidth="20540" windowHeight="14540" xr2:uid="{837DC931-AF0F-438A-81E4-F0599318A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,9 +53,6 @@
     <t>Ponce</t>
   </si>
   <si>
-    <t>H umacao</t>
-  </si>
-  <si>
     <t>Mayaguez</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Humacao</t>
   </si>
 </sst>
 </file>
@@ -139,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,16 +438,16 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -463,7 +463,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -471,7 +471,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -479,92 +479,92 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>940</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>608</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>6.08</v>
+        <v>6080</v>
       </c>
     </row>
   </sheetData>
